--- a/Output/VELAMA.xlsx
+++ b/Output/VELAMA.xlsx
@@ -3560,7 +3560,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -4564,7 +4568,11 @@
       <c r="T2" t="n">
         <v>27</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -5564,7 +5572,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -6405,7 +6417,11 @@
       <c r="T2" t="n">
         <v>32</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -6740,7 +6756,11 @@
       <c r="T2" t="n">
         <v>27</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -7736,7 +7756,11 @@
       <c r="T2" t="n">
         <v>30</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
